--- a/3_Plasma_Pipette_C/1_Schematic/Plasma Pipette_C-Change list_20200304.xlsx
+++ b/3_Plasma_Pipette_C/1_Schematic/Plasma Pipette_C-Change list_20200304.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -121,6 +121,110 @@
   </si>
   <si>
     <t>Plasma_Pipette_V5.0_Main_PCB_20190521.pcb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMBT2222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery 제거 및 DC Adaptor 사용으로 인한 회로 변경</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K/NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7uF/NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_BATT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net name 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R30 Pin-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 3.3V로 변경</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,16 +436,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +621,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1135,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1239,59 +1341,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="51" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="51" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1675,7 +1810,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1727,9 +1862,15 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>43895</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1772,7 +1913,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="31"/>
-      <c r="C9" s="35"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -1783,7 +1924,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="31"/>
-      <c r="C10" s="36"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -1794,7 +1935,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="31"/>
-      <c r="C11" s="37"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
@@ -1805,7 +1946,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="31"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -1816,7 +1957,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="31"/>
-      <c r="C13" s="36"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -1827,7 +1968,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="31"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -1838,7 +1979,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -1849,7 +1990,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -1886,7 +2027,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="25"/>
@@ -1909,7 +2050,7 @@
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="38"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="34"/>
       <c r="J21" s="25"/>
     </row>
@@ -2038,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2110,136 +2251,442 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="30"/>
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51">
+        <v>43895</v>
+      </c>
+      <c r="D6" s="49">
+        <v>2</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="25"/>
+      <c r="B7" s="55">
+        <v>2</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="45">
+        <v>2</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="58"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="25"/>
+      <c r="B8" s="55">
+        <v>3</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="45">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="47">
+        <v>430</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="25"/>
+      <c r="B9" s="55">
+        <v>4</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="45">
+        <v>2</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="25"/>
+      <c r="B10" s="55">
+        <v>5</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="45">
+        <v>2</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="55">
+        <v>6</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="45">
+        <v>2</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="58"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="25"/>
+      <c r="B12" s="55">
+        <v>7</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="45">
+        <v>2</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="25"/>
+      <c r="B13" s="55">
+        <v>8</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="45">
+        <v>2</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="52"/>
+      <c r="B14" s="55">
+        <v>9</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="45">
+        <v>2</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="55">
+        <v>10</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="45">
+        <v>2</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="55">
+        <v>11</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="45">
+        <v>2</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
+        <v>12</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>13</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="31">
+        <v>15</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="31">
+        <v>16</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="31">
+        <v>17</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="31">
+        <v>18</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="31">
+        <v>19</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="31">
+        <v>20</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="31">
+        <v>21</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="31">
+        <v>22</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H6:H14"/>
+    <mergeCell ref="C6:C16"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
